--- a/Test Documents/Test Documents for Admins/Test Case Template For Admins.xlsx
+++ b/Test Documents/Test Documents for Admins/Test Case Template For Admins.xlsx
@@ -244,7 +244,7 @@
     <t>Checking Website link</t>
   </si>
   <si>
-    <t>Bookings page</t>
+    <t>Website Link</t>
   </si>
   <si>
     <t>Admin needs to click on Website</t>
